--- a/test_files/сеть.xlsx
+++ b/test_files/сеть.xlsx
@@ -171,7 +171,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -279,7 +279,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -387,7 +387,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -567,7 +567,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -675,7 +675,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -783,7 +783,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -963,7 +963,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1071,7 +1071,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1179,7 +1179,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1359,7 +1359,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1467,7 +1467,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1575,7 +1575,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1755,7 +1755,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1863,7 +1863,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -1971,7 +1971,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -2151,7 +2151,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -2259,7 +2259,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -2367,7 +2367,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -2547,7 +2547,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -2655,7 +2655,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -2763,7 +2763,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -2943,7 +2943,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3051,7 +3051,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3159,7 +3159,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3339,7 +3339,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3447,7 +3447,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3555,7 +3555,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3735,7 +3735,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3843,7 +3843,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -3951,7 +3951,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -4131,7 +4131,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -4239,7 +4239,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -4347,7 +4347,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -4527,7 +4527,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -4635,7 +4635,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -4743,7 +4743,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -4923,7 +4923,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5031,7 +5031,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5139,7 +5139,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5319,7 +5319,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5427,7 +5427,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5535,7 +5535,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5715,7 +5715,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5823,7 +5823,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -5931,7 +5931,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -6111,7 +6111,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -6219,7 +6219,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -6327,7 +6327,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -6507,7 +6507,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -6615,7 +6615,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -6723,7 +6723,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -6903,7 +6903,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7011,7 +7011,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7119,7 +7119,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7299,7 +7299,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7407,7 +7407,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7515,7 +7515,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7695,7 +7695,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7803,7 +7803,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -7911,7 +7911,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8091,7 +8091,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8199,7 +8199,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8307,7 +8307,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8487,7 +8487,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8595,7 +8595,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8703,7 +8703,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8883,7 +8883,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -8991,7 +8991,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -9099,7 +9099,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -9279,7 +9279,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -9387,7 +9387,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -9495,7 +9495,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -9531,7 +9531,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9543,7 +9543,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9555,7 +9555,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9567,7 +9567,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9579,7 +9579,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9591,7 +9591,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9603,7 +9603,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9615,7 +9615,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9627,7 +9627,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9639,7 +9639,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9651,7 +9651,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9663,7 +9663,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9675,7 +9675,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9687,7 +9687,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9699,7 +9699,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9711,7 +9711,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9723,7 +9723,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9735,7 +9735,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9747,7 +9747,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9759,7 +9759,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9771,7 +9771,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9783,7 +9783,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9795,7 +9795,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9807,7 +9807,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9819,7 +9819,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9831,7 +9831,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9843,7 +9843,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9855,7 +9855,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9867,7 +9867,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9879,7 +9879,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9891,7 +9891,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9903,7 +9903,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9915,7 +9915,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9927,7 +9927,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9939,7 +9939,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9951,7 +9951,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9963,7 +9963,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9975,7 +9975,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9987,7 +9987,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -9999,7 +9999,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10011,7 +10011,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10023,7 +10023,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10035,7 +10035,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10047,7 +10047,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10059,7 +10059,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10071,7 +10071,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10083,7 +10083,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10095,7 +10095,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10107,7 +10107,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10119,7 +10119,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10131,7 +10131,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10143,7 +10143,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10155,7 +10155,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10167,7 +10167,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10179,7 +10179,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10191,7 +10191,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10203,7 +10203,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10215,7 +10215,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10227,7 +10227,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10239,7 +10239,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10251,7 +10251,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10263,7 +10263,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10275,7 +10275,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10287,7 +10287,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10299,7 +10299,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10311,7 +10311,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10323,7 +10323,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10335,7 +10335,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10347,7 +10347,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10359,7 +10359,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10371,7 +10371,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10383,7 +10383,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10395,7 +10395,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10407,7 +10407,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10419,7 +10419,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10431,7 +10431,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10443,7 +10443,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10455,7 +10455,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10467,7 +10467,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10479,7 +10479,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10491,7 +10491,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10503,7 +10503,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10515,7 +10515,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10527,7 +10527,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10539,7 +10539,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10551,7 +10551,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10563,7 +10563,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10575,7 +10575,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10587,7 +10587,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10599,7 +10599,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -10611,7 +10611,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10623,7 +10623,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10635,7 +10635,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10647,7 +10647,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10659,7 +10659,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10671,7 +10671,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10683,7 +10683,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10695,7 +10695,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10707,7 +10707,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10719,7 +10719,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10731,7 +10731,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10743,7 +10743,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10755,7 +10755,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10767,7 +10767,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10779,7 +10779,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10791,7 +10791,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10803,7 +10803,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10815,7 +10815,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10827,7 +10827,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10839,7 +10839,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10851,7 +10851,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10863,7 +10863,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10875,7 +10875,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10887,7 +10887,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10899,7 +10899,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10911,7 +10911,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -10923,7 +10923,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -11331,7 +11331,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -11439,7 +11439,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -11547,7 +11547,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -11727,7 +11727,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -11835,7 +11835,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -11943,7 +11943,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -12123,7 +12123,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -12231,7 +12231,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -12339,7 +12339,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -12519,7 +12519,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -12627,7 +12627,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -12735,7 +12735,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -12915,7 +12915,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13023,7 +13023,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13131,7 +13131,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13311,7 +13311,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13419,7 +13419,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13527,7 +13527,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13707,7 +13707,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13815,7 +13815,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -13923,7 +13923,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -14103,7 +14103,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -14211,7 +14211,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -14319,7 +14319,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -14499,7 +14499,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -14607,7 +14607,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -14715,7 +14715,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -14895,7 +14895,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15003,7 +15003,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15111,7 +15111,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15291,7 +15291,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15399,7 +15399,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15507,7 +15507,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15687,7 +15687,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15795,7 +15795,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -15903,7 +15903,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16083,7 +16083,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16191,7 +16191,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16299,7 +16299,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16479,7 +16479,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16587,7 +16587,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16695,7 +16695,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16875,7 +16875,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -16983,7 +16983,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -17091,7 +17091,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -17271,7 +17271,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -17379,7 +17379,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -17487,7 +17487,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -17667,7 +17667,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -17775,7 +17775,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -17883,7 +17883,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18063,7 +18063,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18171,7 +18171,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18279,7 +18279,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18459,7 +18459,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18567,7 +18567,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18675,7 +18675,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18855,7 +18855,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -18963,7 +18963,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -19071,7 +19071,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -19251,7 +19251,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -19359,7 +19359,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -19467,7 +19467,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -19647,7 +19647,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -19755,7 +19755,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -19863,7 +19863,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -20043,7 +20043,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -20151,7 +20151,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -20259,7 +20259,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -20439,7 +20439,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -20547,7 +20547,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -20655,7 +20655,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(RC[-6]:RC[-1])</t>
+          <t>formula:=SUM(RC[-6]:RC[-1])</t>
         </r>
       </text>
     </comment>
@@ -20691,7 +20691,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20703,7 +20703,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20715,7 +20715,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20727,7 +20727,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20739,7 +20739,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20751,7 +20751,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20763,7 +20763,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20775,7 +20775,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20787,7 +20787,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20799,7 +20799,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20811,7 +20811,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20823,7 +20823,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20835,7 +20835,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20847,7 +20847,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20859,7 +20859,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20871,7 +20871,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20883,7 +20883,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20895,7 +20895,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20907,7 +20907,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20919,7 +20919,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20931,7 +20931,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20943,7 +20943,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20955,7 +20955,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20967,7 +20967,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20979,7 +20979,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -20991,7 +20991,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21003,7 +21003,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21015,7 +21015,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21027,7 +21027,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21039,7 +21039,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21051,7 +21051,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21063,7 +21063,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21075,7 +21075,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21087,7 +21087,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21099,7 +21099,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21111,7 +21111,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21123,7 +21123,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21135,7 +21135,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21147,7 +21147,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21159,7 +21159,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21171,7 +21171,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21183,7 +21183,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21195,7 +21195,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21207,7 +21207,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21219,7 +21219,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21231,7 +21231,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21243,7 +21243,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21255,7 +21255,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21267,7 +21267,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21279,7 +21279,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21291,7 +21291,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21303,7 +21303,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21315,7 +21315,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21327,7 +21327,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21339,7 +21339,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21351,7 +21351,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21363,7 +21363,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21375,7 +21375,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21387,7 +21387,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21399,7 +21399,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21411,7 +21411,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21423,7 +21423,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21435,7 +21435,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21447,7 +21447,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21459,7 +21459,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21471,7 +21471,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21483,7 +21483,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21495,7 +21495,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21507,7 +21507,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21519,7 +21519,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21531,7 +21531,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21543,7 +21543,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21555,7 +21555,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21567,7 +21567,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21579,7 +21579,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21591,7 +21591,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21603,7 +21603,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21615,7 +21615,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21627,7 +21627,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21639,7 +21639,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21651,7 +21651,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21663,7 +21663,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21675,7 +21675,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21687,7 +21687,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21699,7 +21699,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21711,7 +21711,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21723,7 +21723,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21735,7 +21735,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21747,7 +21747,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21759,7 +21759,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=COUNT(R[-24]C:R[-1]C)</t>
+          <t>formula:=COUNT(R[-24]C:R[-1]C)</t>
         </r>
       </text>
     </comment>
@@ -21771,7 +21771,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21783,7 +21783,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21795,7 +21795,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21807,7 +21807,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21819,7 +21819,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21831,7 +21831,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21843,7 +21843,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21855,7 +21855,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21867,7 +21867,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21879,7 +21879,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21891,7 +21891,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21903,7 +21903,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21915,7 +21915,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21927,7 +21927,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21939,7 +21939,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21951,7 +21951,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21963,7 +21963,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21975,7 +21975,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21987,7 +21987,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -21999,7 +21999,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22011,7 +22011,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22023,7 +22023,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22035,7 +22035,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22047,7 +22047,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22059,7 +22059,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22071,7 +22071,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22083,7 +22083,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=SUM(R[-26]C:R[-3]C)</t>
+          <t>formula:=SUM(R[-26]C:R[-3]C)</t>
         </r>
       </text>
     </comment>
@@ -22344,7 +22344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>График</t>
   </si>
@@ -22961,9 +22961,6 @@
     <t>90 000</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -23351,7 +23348,7 @@
   </sheetPr>
   <dimension ref="DX93"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
@@ -31756,224 +31753,96 @@
       <c r="DW78" s="15" t="e"/>
     </row>
     <row r="79" ht="13" customHeight="true">
-      <c r="I79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="I79" s="12" t="e"/>
       <c r="J79" s="12" t="e"/>
       <c r="K79" s="12" t="e"/>
-      <c r="L79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="N79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="L79" s="12" t="e"/>
+      <c r="M79" s="12" t="e"/>
+      <c r="N79" s="12" t="e"/>
+      <c r="O79" s="12" t="e"/>
+      <c r="P79" s="12" t="e"/>
       <c r="Q79" s="12" t="e"/>
       <c r="R79" s="12" t="e"/>
-      <c r="S79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="T79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="U79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="V79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="W79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="S79" s="12" t="e"/>
+      <c r="T79" s="12" t="e"/>
+      <c r="U79" s="12" t="e"/>
+      <c r="V79" s="12" t="e"/>
+      <c r="W79" s="12" t="e"/>
       <c r="X79" s="12" t="e"/>
       <c r="Y79" s="12" t="e"/>
-      <c r="Z79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="Z79" s="12" t="e"/>
+      <c r="AA79" s="12" t="e"/>
+      <c r="AB79" s="12" t="e"/>
+      <c r="AC79" s="12" t="e"/>
+      <c r="AD79" s="12" t="e"/>
       <c r="AE79" s="12" t="e"/>
       <c r="AF79" s="12" t="e"/>
-      <c r="AG79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="AG79" s="12" t="e"/>
+      <c r="AH79" s="12" t="e"/>
+      <c r="AI79" s="12" t="e"/>
+      <c r="AJ79" s="12" t="e"/>
+      <c r="AK79" s="12" t="e"/>
       <c r="AL79" s="12" t="e"/>
       <c r="AM79" s="12" t="e"/>
-      <c r="AX79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AY79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="AX79" s="12" t="e"/>
+      <c r="AY79" s="12" t="e"/>
+      <c r="AZ79" s="12" t="e"/>
+      <c r="BA79" s="12" t="e"/>
+      <c r="BB79" s="12" t="e"/>
       <c r="BC79" s="12" t="e"/>
       <c r="BD79" s="12" t="e"/>
-      <c r="BE79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BF79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BG79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BH79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BI79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="BE79" s="12" t="e"/>
+      <c r="BF79" s="12" t="e"/>
+      <c r="BG79" s="12" t="e"/>
+      <c r="BH79" s="12" t="e"/>
+      <c r="BI79" s="12" t="e"/>
       <c r="BJ79" s="12" t="e"/>
       <c r="BK79" s="12" t="e"/>
-      <c r="BL79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BM79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BN79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BO79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BP79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="BL79" s="12" t="e"/>
+      <c r="BM79" s="12" t="e"/>
+      <c r="BN79" s="12" t="e"/>
+      <c r="BO79" s="12" t="e"/>
+      <c r="BP79" s="12" t="e"/>
       <c r="BQ79" s="12" t="e"/>
       <c r="BR79" s="12" t="e"/>
-      <c r="BS79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BT79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BU79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BW79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="BS79" s="12" t="e"/>
+      <c r="BT79" s="12" t="e"/>
+      <c r="BU79" s="12" t="e"/>
+      <c r="BV79" s="12" t="e"/>
+      <c r="BW79" s="12" t="e"/>
       <c r="BX79" s="12" t="e"/>
       <c r="BY79" s="12" t="e"/>
-      <c r="CJ79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CK79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CL79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CM79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CN79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="CJ79" s="12" t="e"/>
+      <c r="CK79" s="12" t="e"/>
+      <c r="CL79" s="12" t="e"/>
+      <c r="CM79" s="12" t="e"/>
+      <c r="CN79" s="12" t="e"/>
       <c r="CO79" s="12" t="e"/>
       <c r="CP79" s="12" t="e"/>
-      <c r="CQ79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CR79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CS79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CT79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CU79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="CQ79" s="12" t="e"/>
+      <c r="CR79" s="12" t="e"/>
+      <c r="CS79" s="12" t="e"/>
+      <c r="CT79" s="12" t="e"/>
+      <c r="CU79" s="12" t="e"/>
       <c r="CV79" s="12" t="e"/>
       <c r="CW79" s="12" t="e"/>
-      <c r="CX79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CY79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CZ79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DA79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DB79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="CX79" s="12" t="e"/>
+      <c r="CY79" s="12" t="e"/>
+      <c r="CZ79" s="12" t="e"/>
+      <c r="DA79" s="12" t="e"/>
+      <c r="DB79" s="12" t="e"/>
       <c r="DC79" s="12" t="e"/>
       <c r="DD79" s="12" t="e"/>
-      <c r="DE79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DF79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DG79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DH79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DI79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="DE79" s="12" t="e"/>
+      <c r="DF79" s="12" t="e"/>
+      <c r="DG79" s="12" t="e"/>
+      <c r="DH79" s="12" t="e"/>
+      <c r="DI79" s="12" t="e"/>
       <c r="DJ79" s="12" t="e"/>
       <c r="DK79" s="12" t="e"/>
-      <c r="DL79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DM79" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DN79" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="DL79" s="12" t="e"/>
+      <c r="DM79" s="12" t="e"/>
+      <c r="DN79" s="12" t="e"/>
     </row>
     <row r="80" ht="13" customHeight="true"/>
     <row r="81" ht="13" customHeight="true">
@@ -31984,10 +31853,10 @@
       <c r="AR81" s="16" t="e"/>
       <c r="AS81" s="16" t="e"/>
       <c r="AT81" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU81" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="AU81" s="16" t="s">
-        <v>207</v>
       </c>
       <c r="AV81" s="16" t="e"/>
       <c r="BZ81" s="16" t="e"/>
@@ -31997,10 +31866,10 @@
       <c r="CD81" s="16" t="e"/>
       <c r="CE81" s="16" t="e"/>
       <c r="CF81" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG81" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="CG81" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="CH81" s="16" t="e"/>
       <c r="DO81" s="16" t="e"/>
@@ -32010,10 +31879,10 @@
       <c r="DS81" s="16" t="e"/>
       <c r="DT81" s="16" t="e"/>
       <c r="DU81" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="DV81" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="DV81" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="DW81" s="16" t="e"/>
     </row>
@@ -32023,10 +31892,10 @@
         <v>151</v>
       </c>
       <c r="AU83" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV83" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="AV83" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="CF83" s="17" t="s">
         <v>151</v>
@@ -32035,16 +31904,16 @@
         <v>154</v>
       </c>
       <c r="CH83" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DU83" s="17" t="s">
         <v>151</v>
       </c>
       <c r="DV83" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="DW83" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="DW83" s="18" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="true">
@@ -32055,7 +31924,7 @@
         <v>154</v>
       </c>
       <c r="AV84" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CF84" s="17" t="s">
         <v>155</v>
@@ -32064,7 +31933,7 @@
         <v>154</v>
       </c>
       <c r="CH84" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="DU84" s="17" t="s">
         <v>155</v>
@@ -32073,7 +31942,7 @@
         <v>154</v>
       </c>
       <c r="DW84" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="true">
@@ -32081,28 +31950,28 @@
         <v>156</v>
       </c>
       <c r="AU85" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV85" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="AV85" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="CF85" s="17" t="s">
         <v>156</v>
       </c>
       <c r="CG85" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CH85" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="DU85" s="17" t="s">
         <v>156</v>
       </c>
       <c r="DV85" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="DW85" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="true">
@@ -32113,7 +31982,7 @@
         <v>159</v>
       </c>
       <c r="AV86" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="CF86" s="17" t="s">
         <v>158</v>
@@ -32122,7 +31991,7 @@
         <v>159</v>
       </c>
       <c r="CH86" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="DU86" s="17" t="s">
         <v>158</v>
@@ -32131,7 +32000,7 @@
         <v>159</v>
       </c>
       <c r="DW86" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="true">
@@ -32274,19 +32143,19 @@
         <v>165</v>
       </c>
       <c r="AV90" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CF90" s="17" t="s">
         <v>165</v>
       </c>
       <c r="CH90" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="DU90" s="17" t="s">
         <v>165</v>
       </c>
       <c r="DW90" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" s="1" customFormat="true"/>
